--- a/Clase_10/Predict_Base_Transporte_ARIMA.xlsx
+++ b/Clase_10/Predict_Base_Transporte_ARIMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2024-I/Series-Tiempo-2023/Clase_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/SERIES_2025-I/Series-Tiempo-2024/Clase_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2339AD3-69F2-B340-9650-E5A9F685633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAB553E-ED38-3048-8BC0-8711537CA607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30280" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="38400" windowHeight="18880" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,7 +441,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45078</v>
+        <v>45474</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45108</v>
+        <v>45505</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45139</v>
+        <v>45536</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45170</v>
+        <v>45566</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45200</v>
+        <v>45597</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45231</v>
+        <v>45627</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45261</v>
+        <v>45658</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45292</v>
+        <v>45689</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45323</v>
+        <v>45717</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45352</v>
+        <v>45748</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45383</v>
+        <v>45778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45413</v>
+        <v>45809</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45444</v>
+        <v>45839</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45474</v>
+        <v>45870</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45505</v>
+        <v>45901</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45536</v>
+        <v>45931</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45566</v>
+        <v>45962</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45597</v>
+        <v>45992</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45627</v>
+        <v>46023</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45658</v>
+        <v>46054</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45689</v>
+        <v>46082</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45717</v>
+        <v>46113</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45748</v>
+        <v>46143</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45778</v>
+        <v>46174</v>
       </c>
       <c r="B25">
         <v>0</v>
